--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Desktop\לימודים\כריית מידע\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB7B46B-D06A-4186-912D-B9E647DFE13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048AE6C2-3F78-4F44-BD6F-E3FC9E3A547D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E800E4DB-5A12-4061-85AF-E96283708C8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E800E4DB-5A12-4061-85AF-E96283708C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Presidant</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>2019</t>
+  </si>
+  <si>
+    <t>Total criame</t>
   </si>
 </sst>
 </file>
@@ -150,7 +153,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -175,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -194,11 +197,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -209,6 +221,11 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,21 +541,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBE4AC0-853F-4122-B9EA-8AA172DA13E7}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="M6:N6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="12" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -574,8 +594,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -612,8 +635,12 @@
       <c r="L2" s="3">
         <v>1661738</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="5">
+        <f>SUM(D2:L2)</f>
+        <v>29745766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -650,8 +677,12 @@
       <c r="L3" s="3">
         <v>1610834</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="5">
+        <f>SUM(D3:L3)</f>
+        <v>28876382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -688,8 +719,12 @@
       <c r="L4" s="3">
         <v>1563060</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M30" si="0">SUM(D4:L4)</f>
+        <v>28289588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -726,8 +761,12 @@
       <c r="L5" s="3">
         <v>1539287</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>27979086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -764,8 +803,12 @@
       <c r="L6" s="3">
         <v>1472441</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>27725454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -802,8 +845,12 @@
       <c r="L7" s="3">
         <v>1394238</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
+        <v>26987726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -840,8 +887,12 @@
       <c r="L8" s="3">
         <v>1354189</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>26389142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -878,8 +929,12 @@
       <c r="L9" s="3">
         <v>1242781</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="5">
+        <f t="shared" si="0"/>
+        <v>24971428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -916,8 +971,12 @@
       <c r="L10" s="3">
         <v>1152075</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="5">
+        <f t="shared" si="0"/>
+        <v>23268756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -954,8 +1013,12 @@
       <c r="L11" s="3">
         <v>1160002</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="5">
+        <f t="shared" si="0"/>
+        <v>23216140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -992,8 +1055,12 @@
       <c r="L12" s="3">
         <v>1228391</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="5">
+        <f t="shared" si="0"/>
+        <v>23753338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1030,8 +1097,12 @@
       <c r="L13" s="3">
         <v>1246646</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="5">
+        <f t="shared" si="0"/>
+        <v>23757908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1068,8 +1139,12 @@
       <c r="L14" s="3">
         <v>1261226</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="5">
+        <f t="shared" si="0"/>
+        <v>23653076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1106,8 +1181,12 @@
       <c r="L15" s="3">
         <v>1237851</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="5">
+        <f t="shared" si="0"/>
+        <v>23358948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1223,12 @@
       <c r="L16" s="3">
         <v>1235859</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="5">
+        <f t="shared" si="0"/>
+        <v>23130998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1182,8 +1265,12 @@
       <c r="L17" s="3">
         <v>1198245</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="5">
+        <f t="shared" si="0"/>
+        <v>22909448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1220,8 +1307,12 @@
       <c r="L18" s="3">
         <v>1100472</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="5">
+        <f t="shared" si="0"/>
+        <v>22610364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1258,8 +1349,12 @@
       <c r="L19" s="3">
         <v>959059</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="5">
+        <f t="shared" si="0"/>
+        <v>22337226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1296,8 +1391,12 @@
       <c r="L20" s="3">
         <v>795652</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="5">
+        <f t="shared" si="0"/>
+        <v>21325912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1334,8 +1433,12 @@
       <c r="L21" s="3">
         <v>739565</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="5">
+        <f t="shared" si="0"/>
+        <v>20727746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1372,8 +1475,12 @@
       <c r="L22" s="3">
         <v>716508</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="5">
+        <f t="shared" si="0"/>
+        <v>20517496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1410,8 +1517,12 @@
       <c r="L23" s="3">
         <v>723186</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="5">
+        <f t="shared" si="0"/>
+        <v>20438098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1448,8 +1559,12 @@
       <c r="L24" s="3">
         <v>700288</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="5">
+        <f t="shared" si="0"/>
+        <v>19640380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1486,8 +1601,12 @@
       <c r="L25" s="3">
         <v>686803</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="5">
+        <f t="shared" si="0"/>
+        <v>18724064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1524,8 +1643,12 @@
       <c r="L26" s="3">
         <v>713063</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="5">
+        <f t="shared" si="0"/>
+        <v>18446850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1562,8 +1685,12 @@
       <c r="L27" s="3">
         <v>767290</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="5">
+        <f t="shared" si="0"/>
+        <v>18357384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1600,8 +1727,12 @@
       <c r="L28" s="3">
         <v>772943</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="5">
+        <f t="shared" si="0"/>
+        <v>17861810</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1638,8 +1769,12 @@
       <c r="L29" s="3">
         <v>751904</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="5">
+        <f t="shared" si="0"/>
+        <v>16858162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1675,6 +1810,10 @@
       </c>
       <c r="L30" s="3">
         <v>721885</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="0"/>
+        <v>16258970</v>
       </c>
     </row>
   </sheetData>
